--- a/database/sidis/expdata/2050.xlsx
+++ b/database/sidis/expdata/2050.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Liu/Repos/fitpack/database/sidis/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE476F4A-9147-B148-9F9C-FB9FAAD23819}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15780" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="Zgt02_p_x_Siv" localSheetId="0">工作表1!$B$1:$L$27</definedName>
   </definedNames>
-  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,9 +28,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Zgt02_p_x_Siv.dat" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:user:Downloads:files_HEPdata 2:Zgt02_p_x_Siv.dat" consecutive="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Zgt02_p_x_Siv.dat" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:user:Downloads:files_HEPdata 2:Zgt02_p_x_Siv.dat" consecutive="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -97,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,12 +130,16 @@
     <t>compass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>systabs_u</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,17 +209,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Zgt02_p_x_Siv" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Zgt02_p_x_Siv" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,14 +551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
@@ -594,19 +608,19 @@
         <v>12</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,13 +664,13 @@
         <v>4.1231059999999996E-3</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
@@ -703,13 +717,13 @@
         <v>3.3166250000000001E-3</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
         <v>2</v>
@@ -756,13 +770,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
         <v>2</v>
@@ -809,13 +823,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
         <v>2</v>
@@ -862,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
         <v>2</v>
@@ -915,13 +929,13 @@
         <v>3.6055509999999998E-3</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
         <v>2</v>
@@ -968,13 +982,13 @@
         <v>9.1651509999999999E-3</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
         <v>2</v>
@@ -1021,13 +1035,13 @@
         <v>1.3527749E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
         <v>2</v>
@@ -1074,13 +1088,13 @@
         <v>5.3851649999999999E-3</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
         <v>2</v>
@@ -1127,13 +1141,13 @@
         <v>6.928203E-3</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
         <v>2</v>
@@ -1180,13 +1194,13 @@
         <v>4.3588990000000003E-3</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="s">
         <v>2</v>
@@ -1233,13 +1247,13 @@
         <v>4.7958319999999999E-3</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
         <v>2</v>
@@ -1286,13 +1300,13 @@
         <v>8.7177980000000006E-3</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
         <v>2</v>
@@ -1339,13 +1353,13 @@
         <v>1.6970563000000001E-2</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
         <v>2</v>
@@ -1392,13 +1406,13 @@
         <v>8.2462109999999998E-3</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
         <v>2</v>
@@ -1445,13 +1459,13 @@
         <v>4.5825759999999997E-3</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="s">
         <v>2</v>
@@ -1498,13 +1512,13 @@
         <v>4.7958319999999999E-3</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="s">
         <v>2</v>
@@ -1551,13 +1565,13 @@
         <v>4.5825759999999997E-3</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
         <v>2</v>
@@ -1604,13 +1618,13 @@
         <v>7.4833149999999999E-3</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
         <v>2</v>
@@ -1657,13 +1671,13 @@
         <v>1.1618949999999999E-2</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="s">
         <v>2</v>
@@ -1710,13 +1724,13 @@
         <v>2.0124612E-2</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="s">
         <v>2</v>
@@ -1763,13 +1777,13 @@
         <v>1.2845232999999999E-2</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="s">
         <v>2</v>
@@ -1816,13 +1830,13 @@
         <v>1.1090536999999999E-2</v>
       </c>
       <c r="N24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="s">
         <v>2</v>
@@ -1869,13 +1883,13 @@
         <v>8.9442719999999996E-3</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="s">
         <v>2</v>
@@ -1922,13 +1936,13 @@
         <v>8.2462109999999998E-3</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="s">
         <v>2</v>
@@ -1975,13 +1989,13 @@
         <v>1.7888543999999999E-2</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" t="s">
         <v>2</v>

--- a/database/sidis/expdata/2050.xlsx
+++ b/database/sidis/expdata/2050.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO-REPOS/fitpack/database/sidis/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15780" tabRatio="500"/>
   </bookViews>
@@ -14,6 +19,9 @@
   </definedNames>
   <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Zgt02_p_x_Siv.dat" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:user:Downloads:files_HEPdata 2:Zgt02_p_x_Siv.dat" consecutive="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:user:Downloads:files_HEPdata 2:Zgt02_p_x_Siv.dat" consecutive="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -97,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>systabs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,6 +132,9 @@
     <t>compass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>systabs_u</t>
+  </si>
 </sst>
 </file>
 
@@ -137,14 +144,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -153,7 +160,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -162,7 +169,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -170,7 +177,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -203,12 +210,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -541,10 +553,10 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
@@ -556,7 +568,7 @@
     <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,22 +606,22 @@
         <v>12</v>
       </c>
       <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -650,19 +662,19 @@
         <v>4.1231059999999996E-3</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -703,19 +715,19 @@
         <v>3.3166250000000001E-3</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -756,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -809,19 +821,19 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -862,19 +874,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -915,19 +927,19 @@
         <v>3.6055509999999998E-3</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -968,19 +980,19 @@
         <v>9.1651509999999999E-3</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1021,19 +1033,19 @@
         <v>1.3527749E-2</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1074,19 +1086,19 @@
         <v>5.3851649999999999E-3</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1127,19 +1139,19 @@
         <v>6.928203E-3</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1180,19 +1192,19 @@
         <v>4.3588990000000003E-3</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1233,19 +1245,19 @@
         <v>4.7958319999999999E-3</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1286,19 +1298,19 @@
         <v>8.7177980000000006E-3</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1339,19 +1351,19 @@
         <v>1.6970563000000001E-2</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1392,19 +1404,19 @@
         <v>8.2462109999999998E-3</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1445,19 +1457,19 @@
         <v>4.5825759999999997E-3</v>
       </c>
       <c r="N17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1498,19 +1510,19 @@
         <v>4.7958319999999999E-3</v>
       </c>
       <c r="N18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1551,19 +1563,19 @@
         <v>4.5825759999999997E-3</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1604,19 +1616,19 @@
         <v>7.4833149999999999E-3</v>
       </c>
       <c r="N20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1657,19 +1669,19 @@
         <v>1.1618949999999999E-2</v>
       </c>
       <c r="N21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1710,19 +1722,19 @@
         <v>2.0124612E-2</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1763,19 +1775,19 @@
         <v>1.2845232999999999E-2</v>
       </c>
       <c r="N23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1816,19 +1828,19 @@
         <v>1.1090536999999999E-2</v>
       </c>
       <c r="N24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1869,19 +1881,19 @@
         <v>8.9442719999999996E-3</v>
       </c>
       <c r="N25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1922,19 +1934,19 @@
         <v>8.2462109999999998E-3</v>
       </c>
       <c r="N26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1975,13 +1987,13 @@
         <v>1.7888543999999999E-2</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" t="s">
         <v>2</v>
@@ -1991,10 +2003,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>